--- a/files/menus/green_mountain/salads_greenmountain.xlsx
+++ b/files/menus/green_mountain/salads_greenmountain.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ajaxproto\files\menus\green_mountain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C877DB9-916F-4772-A026-5BC70571772A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774E5E0D-67FC-4BBF-A642-EAD3E382C915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6855" windowWidth="29040" windowHeight="15840" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="9795" yWindow="7575" windowWidth="27405" windowHeight="14325" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="salads_greenmountain" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Ingredients</t>
   </si>
@@ -53,52 +53,61 @@
     <t>nutritionLabel</t>
   </si>
   <si>
+    <t>Egg, Sausage</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>VGN, GF, DF</t>
+  </si>
+  <si>
+    <t>Turkey / Bacon / Cheddar Cheese / Lettuce / Tomato / Garlic Aioli</t>
+  </si>
+  <si>
+    <t>Turkey / Swiss Cheese / Roasted Onion / Tomato / Cucumber / Mixed Greens / Spicy Mayo</t>
+  </si>
+  <si>
+    <t>Falafel / Feta / Red Onion / Cucumber / Mixed Greens / Tomato / Tzatziki</t>
+  </si>
+  <si>
+    <t>Allergens</t>
+  </si>
+  <si>
+    <t>Wheat, sulphites, egg.</t>
+  </si>
+  <si>
+    <t>No known priority allergens</t>
+  </si>
+  <si>
+    <t>Cobb Salad</t>
+  </si>
+  <si>
+    <t>Kale Caesar</t>
+  </si>
+  <si>
+    <t>House Salad</t>
+  </si>
+  <si>
+    <t>GF,VEG</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>waffles</t>
-  </si>
-  <si>
-    <t>Egg, Sausage</t>
-  </si>
-  <si>
-    <t>Potato</t>
-  </si>
-  <si>
-    <t>VGN, GF, DF</t>
-  </si>
-  <si>
-    <t>Turkey / Bacon / Cheddar Cheese / Lettuce / Tomato / Garlic Aioli</t>
-  </si>
-  <si>
-    <t>Turkey / Swiss Cheese / Roasted Onion / Tomato / Cucumber / Mixed Greens / Spicy Mayo</t>
-  </si>
-  <si>
-    <t>Falafel / Feta / Red Onion / Cucumber / Mixed Greens / Tomato / Tzatziki</t>
-  </si>
-  <si>
-    <t>Allergens</t>
-  </si>
-  <si>
-    <t>Wheat, sulphites, egg.</t>
-  </si>
-  <si>
-    <t>No known priority allergens</t>
-  </si>
-  <si>
-    <t>Cobb Salad</t>
-  </si>
-  <si>
-    <t>Kale Caesar</t>
-  </si>
-  <si>
-    <t>House Salad</t>
-  </si>
-  <si>
     <t>GF</t>
   </si>
   <si>
-    <t>GF,VEG</t>
+    <t>cobbsalad</t>
+  </si>
+  <si>
+    <t>kalecaesar</t>
+  </si>
+  <si>
+    <t>housesalad</t>
+  </si>
+  <si>
+    <t>LeaveEmpty</t>
   </si>
 </sst>
 </file>
@@ -163,15 +172,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AA44CCDF-F9E2-4FB6-9AED-85FE3A3C6008}" name="ItemName"/>
-    <tableColumn id="2" xr3:uid="{9D7FC130-DF66-4465-8F0B-6015043C6AA1}" name="Ingredients"/>
-    <tableColumn id="7" xr3:uid="{364DC3EB-6DF2-4CD4-84D8-820702E66F1F}" name="Allergens"/>
-    <tableColumn id="3" xr3:uid="{9F2485F9-EFCE-415F-9AF4-2B5A16080CD5}" name="LocalIngredients"/>
-    <tableColumn id="4" xr3:uid="{11D88A0B-C840-4F23-81DF-C249BC9C7872}" name="Diet"/>
-    <tableColumn id="5" xr3:uid="{378390CC-E66E-4719-939E-E825F4A2EB3E}" name="nutritionLabel"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{406C4A1E-9F23-4DB4-AF4D-045C3C664B35}" name="Table32" displayName="Table32" ref="A1:G4" totalsRowShown="0">
+  <autoFilter ref="A1:G4" xr:uid="{406C4A1E-9F23-4DB4-AF4D-045C3C664B35}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{6209B71F-1F77-4638-B247-81EDAB5EF55C}" name="ItemName"/>
+    <tableColumn id="2" xr3:uid="{C612AE7C-D484-433B-B5A6-0FF995709ABF}" name="Ingredients"/>
+    <tableColumn id="7" xr3:uid="{5FB26F15-6BCF-4264-B46C-CE7168D24CEC}" name="Allergens"/>
+    <tableColumn id="3" xr3:uid="{3460BA82-D661-4367-81A7-6757E9C3FA5E}" name="LocalIngredients"/>
+    <tableColumn id="4" xr3:uid="{741C2F9D-DCEA-4311-BDE1-C35833B30823}" name="Diet"/>
+    <tableColumn id="5" xr3:uid="{338C39D7-C9CE-4ADD-82B0-AA144B346D57}" name="nutritionLabel"/>
+    <tableColumn id="6" xr3:uid="{56B81A49-AD60-4C3C-8870-DAE1DEC4B3B8}" name="LeaveEmpty"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -474,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E4FEC9-4E15-443B-89A8-5C76E19963E8}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,10 +497,10 @@
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -498,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -509,62 +519,68 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/files/menus/green_mountain/salads_greenmountain.xlsx
+++ b/files/menus/green_mountain/salads_greenmountain.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ajaxproto\files\menus\green_mountain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\green_mountain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774E5E0D-67FC-4BBF-A642-EAD3E382C915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8780367E-1A85-4803-A45E-01DC03010DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9795" yWindow="7575" windowWidth="27405" windowHeight="14325" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="9975" yWindow="1860" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="salads_greenmountain" sheetId="1" r:id="rId1"/>
@@ -101,13 +101,13 @@
     <t>cobbsalad</t>
   </si>
   <si>
-    <t>kalecaesar</t>
-  </si>
-  <si>
     <t>housesalad</t>
   </si>
   <si>
     <t>LeaveEmpty</t>
+  </si>
+  <si>
+    <t>placeholder</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +520,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/files/menus/green_mountain/salads_greenmountain.xlsx
+++ b/files/menus/green_mountain/salads_greenmountain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\green_mountain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8780367E-1A85-4803-A45E-01DC03010DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D411C3B5-72F0-4F93-8060-0031CB68C070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9975" yWindow="1860" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="14595" yWindow="2910" windowWidth="23700" windowHeight="13215" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="salads_greenmountain" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Ingredients</t>
   </si>
@@ -53,61 +53,58 @@
     <t>nutritionLabel</t>
   </si>
   <si>
-    <t>Egg, Sausage</t>
-  </si>
-  <si>
-    <t>Potato</t>
-  </si>
-  <si>
-    <t>VGN, GF, DF</t>
-  </si>
-  <si>
-    <t>Turkey / Bacon / Cheddar Cheese / Lettuce / Tomato / Garlic Aioli</t>
-  </si>
-  <si>
-    <t>Turkey / Swiss Cheese / Roasted Onion / Tomato / Cucumber / Mixed Greens / Spicy Mayo</t>
-  </si>
-  <si>
-    <t>Falafel / Feta / Red Onion / Cucumber / Mixed Greens / Tomato / Tzatziki</t>
-  </si>
-  <si>
     <t>Allergens</t>
   </si>
   <si>
-    <t>Wheat, sulphites, egg.</t>
-  </si>
-  <si>
-    <t>No known priority allergens</t>
-  </si>
-  <si>
     <t>Cobb Salad</t>
   </si>
   <si>
-    <t>Kale Caesar</t>
-  </si>
-  <si>
     <t>House Salad</t>
   </si>
   <si>
-    <t>GF,VEG</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>GF</t>
-  </si>
-  <si>
-    <t>cobbsalad</t>
-  </si>
-  <si>
-    <t>housesalad</t>
-  </si>
-  <si>
     <t>LeaveEmpty</t>
   </si>
   <si>
-    <t>placeholder</t>
+    <t xml:space="preserve"> Egg / Guacamole / Bacon / Cheddar / Tomato / Cucumber / Romaine / Ranch Dressing</t>
+  </si>
+  <si>
+    <t>Milk, eggs.</t>
+  </si>
+  <si>
+    <t>Fresh Start Cucumber, Fresh Start Tomato, Fresh Start Romaine</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Caesar Salad</t>
+  </si>
+  <si>
+    <t>Crispy Chicken / Bacon / Romaine / Parmesan / Caesar Dressing</t>
+  </si>
+  <si>
+    <t>Milk, eggs, fish.</t>
+  </si>
+  <si>
+    <t>Fresh Start Romaine, Castle Cheese Parmesan</t>
+  </si>
+  <si>
+    <t>Carrots / Tomato / Cucumber / Romaine / Balsamic Dressing</t>
+  </si>
+  <si>
+    <t>Dressing contains sulphites.</t>
+  </si>
+  <si>
+    <t>BC, VEG, VGN, GF DF</t>
+  </si>
+  <si>
+    <t>Cobb_Salad</t>
+  </si>
+  <si>
+    <t>Caesar_Salad</t>
+  </si>
+  <si>
+    <t>House_Salad</t>
   </si>
 </sst>
 </file>
@@ -152,7 +149,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,7 +484,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -520,24 +517,24 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -545,42 +542,42 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
